--- a/graph_generation/results_pathCompare/gpt3.5/level_8/k_3.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_8/k_3.xlsx
@@ -83,23 +83,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 5 0 0 4 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 4 0 0 1 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 5 0 0 5 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 4 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 3 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 2 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -158,23 +158,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 2 0 0 5 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 4 0 0 5 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 2 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 3 0 1 0 0 3 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 4
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -233,27 +233,27 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 3 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
  J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -306,24 +306,25 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 3 0 0 1 0 0 0 0 0 0 0
- E 0 5 0 0 0 0 0 0 1 0 0 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
- K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 3
- L 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 4 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -382,23 +383,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0
- F 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 3 0 0 1 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 4 0 0 3 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 5 0 0 4 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 2 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -457,23 +458,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 3 0 0 1 0 2 0 0 4 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 5 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 2 0 4 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 3 0 0 5 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -532,23 +533,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 5 0 0 2 0 1 0 0 5 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 2 0 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0
- L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ C 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 3 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 5 0 0 2 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -607,22 +608,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0
- E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 3 0 0 3 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 4 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ B 2 0 5 0 0 5 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 5 0 0 0 1 0 0
+ K 0 0 0 0 0 0 5 0 0 2 0 4 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -681,23 +682,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 4 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 1 0 0 5 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 3 0 0 2 0 3 0 0 4 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 2 0 0 4 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 4 0 0 5 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 3
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 2 0 4 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -757,22 +758,22 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 3 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0
  C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0
- G 0 0 2 0 0 3 0 0 0 0 5 0 0 0 0 0
- H 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ F 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 2 0 0 0 0 5 0 0 1 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -783,154 +784,122 @@
   </si>
   <si>
     <t>Possible paths from A to P:
-1) A - B - C - D - E - F - G - H - J - L - O - P
-2) A - B - C - D - E - F - G - H - J - L - P
-3) A - B - C - D - E - F - G - H - J - N - P
-4) A - B - C - D - E - F - G - H - P
-5) A - B - C - D - E - F - P
-Among these paths, the least cost path from node A to node P is: A - B - C - D - E - F - G - H - P</t>
+1. A - B - F - E - P
+   Cost: 5 + 3 + 4 + 4 = 16
+2. A - C - D - H - I - M - N - P
+   Cost: 3 + 3 + 2 + 2 + 1 + 5 = 16
+3. A - C - F - B - E - P
+   Cost: 4 + 5 + 4 + 4 = 17
+4. A - C - F - J - N - P
+   Cost: 4 + 2 + 5 = 11
+5. A - B - F - J - N - P
+   Cost: 5 + 5 + 5 = 15
+6. A - B - F - J - N - O - P
+   Cost: 5 + 5 + 1 + 2 = 13
+7. A - C - F - J - N - O - P
+   Cost: 4 + 2 + 2 = 8
+8. A - C - F - J - N - O - P
+   Cost: 4 + 2 + 5 = 11
+The least cost path from node A to node P is A - C - F - J - N - O - P, with a cost of 11.</t>
+  </si>
+  <si>
+    <t>Possible Path 1: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+   Total Cost: 5 + 2 + 1 + 1 + 4 + 3 + 5 + 1 = 22
+Possible Path 2: A -&gt; B -&gt; C -&gt; J -&gt; N -&gt; O -&gt; P
+   Total Cost: 5 + 3 + 4 + 5 + 1 = 18
+Possible Path 3: A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P
+   Total Cost: 5 + 1 + 2 + 3 + 4 + 5 + 1 = 21
+Possible Path 4: A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P
+   Total Cost: 1 + 3 + 4 + 5 + 2 + 1 + 1 + 4 + 3 + 5 + 1 = 30
+From the given paths, the least cost path from node A to node P is Path 2: A -&gt; B -&gt; C -&gt; J -&gt; N -&gt; O -&gt; P with a total cost of 18.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A-B-F-G-P
-2. A-B-F-G-H-P
-3. A-B-F-G-H-I-P
-4. A-B-F-G-H-I-J-P
-5. A-B-F-G-H-I-J-K-P
-6. A-B-F-G-H-I-J-K-L-P
-7. A-B-F-G-H-I-J-K-L-M-P
-8. A-B-F-G-H-I-J-K-L-M-N-P
-9. A-B-F-G-H-I-J-K-L-M-N-O-P
-10. A-B-F-G-H-I-J-K-L-M-N-O-P
-Therefore, the least cost path from node A to node P is A-B-F-G-H-I-J-K-L-M-N-O-P.</t>
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (Cost: 2 + 5 + 4 + 4 = 15)
+2. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P (Cost: 2 + 5 + 3 + 1 = 11)
+3. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; P (Cost: 2 + 5 + 3 + 2 = 12)
+4. A -&gt; B -&gt; F -&gt; G -&gt; L -&gt; P (Cost: 2 + 5 + 3 + 1 + 4 = 15)
+5. A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 2 + 5 + 3 + 3 = 13)
+The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P with a cost of 11.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A-B-F-G-P (cost: 2+1+4 = 7)
-2. A-E-G-P (cost: 2+4 = 6)
-3. A-E-I-P (cost: 2+4+3 = 9)
-4. A-E-I-J-K-P (cost: 2+4+3+4+3 = 16)
-5. A-E-I-J-K-L-P (cost: 2+4+3+4+5 = 18)
-6. A-E-I-J-K-L-M-P (cost: 2+4+3+4+5+2 = 20)
-Therefore, the least cost path from node A to node P is A-E-G-P with a cost of 6, and the sequence of nodes in the path is A, E, G, P.</t>
-  </si>
-  <si>
-    <t>Possible Paths:
-1. A-B
-2. A-B-C
-3. A-D
-4. A-D-E
-5. A-D-E-F
-6. A-D-E-F-I-H
-7. A-D-E-F-I-H-K
-8. A-D-E-F-I-H-K-L-M
-9. A-D-E-F-I-H-K-L-M-N
-10. A-D-E-F-I-H-K-L-M-N-O
-To find the least cost path from node A to node O, we need to compare the costs of these paths:
-1. A-B: 4
-2. A-B-C: 8
-3. A-D: 1
-4. A-D-E: 10
-5. A-D-E-F: 12
-6. A-D-E-F-I-H: 22
-7. A-D-E-F-I-H-K: 27
-8. A-D-E-F-I-H-K-L-M: 33
-9. A-D-E-F-I-H-K-L-M-N: 35
-10. A-D-E-F-I-H-K-L-M-N-O: 38
-The least cost path from node A to node O is A-D-E-F-I-H-K-L-M-N-O with a total cost of 38.</t>
+1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+   Cost: 4+1+1+2+1+4+5+2+4+4+5 = 37
+2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+   Cost: 4+1+1+2+1+4+5+2+4+4+5 = 37
+3. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+   Cost: 4+4+1+5+2+4+4+5 = 29
+4. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+   Cost: 4+4+1+5+2+4+4+5 = 29
+5. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P
+   Cost: 4+1+1+5+2+4+4+2+2 = 25
+6. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P
+   Cost: 4+1+1+5+2+4+4+2+2 = 25
+Therefore, the least cost path from node A to node P is A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P with a cost of 25.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost = 39)
-2) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost = 40)
-3) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P (cost = 45)
-4) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost = 42)
-5) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P (cost = 43)
-6) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (cost = 50)
-The least cost path from node A to node P is the path A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; P, with a cost of 43.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; F -&gt; G -&gt; P (total cost = 5 + 2 + 4 + 2 = 13)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (total cost = 2 + 2 + 5 + 5 + 2 = 16)
-3. A -&gt; B -&gt; C -&gt; D -&gt; P (total cost = 2 + 2 + 5 = 9)
-4. A -&gt; B -&gt; C -&gt; E -&gt; P (total cost = 2 + 2 + 3 = 7)
-The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; E -&gt; P with a total cost of 7.</t>
+1. A -&gt; D -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P (cost: 15)
+2. A -&gt; D -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P (cost: 15)
+3. A -&gt; D -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P (cost: 15)
+4. A -&gt; D -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P (cost: 15)
+The least cost path from node A to node P is A -&gt; D -&gt; G -&gt; J -&gt; N -&gt; O -&gt; P with a cost of 15.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1) A - B - C - D - H - F - J - O - P (cost: 25)
-2) A - B - C - D - H - F - J - N - O - P (cost: 27)
-3) A - E - F - J - O - P (cost: 16)
-4) A - E - F - J - N - O - P (cost: 18)
-5) A - E - F - G - K - L - P (cost: 21)
-6) A - E - F - G - K - O - P (cost: 16)
-7) A - E - F - G - O - P (cost: 14)
-8) A - E - H - F - J - O - P (cost: 16)
-9) A - E - H - F - J - N - O - P (cost: 18)
-The least cost path from node A to node P is A - E - H - F - G - O - P with a cost of 14.</t>
+1. A -&gt; B -&gt; F -&gt; K -&gt; P (cost = 2+5+0+4 = 11)
+2. A -&gt; B -&gt; F -&gt; S -&gt; P (cost = 2+5+0+0 = 7)
+3. A -&gt; B -&gt; F -&gt; T -&gt; P (cost = 2+5+0+0 = 7)
+4. A -&gt; B -&gt; F -&gt; L -&gt; O -&gt; P (cost = 2+5+0+1+2 = 10)
+5. A -&gt; B -&gt; F -&gt; L -&gt; P (cost = 2+5+0+2 = 9)
+The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; S -&gt; P, with a cost of 7. So the sequence of nodes in response is A, B, F, S, P.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+The least cost path from node A to node P is: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P</t>
   </si>
   <si>
     <t>Possible paths from A to O:
-A -&gt; D -&gt; H -&gt; I -&gt; N -&gt; O (cost: 3+4+3+4 = 14)
-A -&gt; D -&gt; H -&gt; O (cost: 3+4+2 = 9)
-A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O (cost: 3+4+3+1+4 = 15)
-A -&gt; D -&gt; H -&gt; I -&gt; K -&gt; O (cost: 3+4+3+1 = 11)
-A -&gt; D -&gt; H -&gt; I -&gt; L -&gt; N -&gt; O (cost: 3+4+3+4 = 14)
-A -&gt; D -&gt; H -&gt; I -&gt; L -&gt; M -&gt; N -&gt; O (cost: 3+4+3+4+4 = 18)
-The least cost path from node A to node O is A -&gt; D -&gt; H -&gt; O with a cost of 9.</t>
-  </si>
-  <si>
-    <t>1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P, with a total cost of 27
-2. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P, with a total cost of 27
-3. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; P, with a total cost of 25
-4. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P, with a total cost of 28
-5. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P, with a total cost of 26
-6. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P, with a total cost of 10
-7. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P, with a total cost of 8
-8. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P, with a total cost of 24
-9. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N -&gt; P, with a total cost of 22
-10. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P, with a total cost of 26
-11. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; M -&gt; N -&gt; P, with a total cost of 24
-12. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; K -&gt; N -&gt; O -&gt; P, with a total cost of 29
-13. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; K -&gt; N -&gt; P, with a total cost of 27
-14. A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P, with a total cost of 8
-15. A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; P, with a total cost of 6
-16. A -&gt; E -&gt; I -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P, with a total cost of 10
-17. A -&gt; E -&gt; I -&gt; L -&gt; M -&gt; N -&gt; P, with a total cost of 8
-18. A -&gt; E -&gt; I -&gt; L -&gt; K -&gt; N -&gt; O -&gt; P, with a total cost of 13
-19. A -&gt; E -&gt; I -&gt; L -&gt; K -&gt; N -&gt; P, with a total cost of 11
-20. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; N -&gt; O -&gt; P, with a total cost of 28
-21. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; N -&gt; P, with a total cost of 26
-22. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P, with a total cost of 30
-23. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; N -&gt; P, with a total cost of 28
-24. A -&gt; E -&gt; I -&gt; L -&gt; K -&gt; N -&gt; O -&gt; P, with a total cost of 11
-25. A -&gt; E -&gt; I -&gt; L -&gt; K -&gt; N -&gt; P, with a total cost of 9
-26. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P, with a total cost of 28
-27. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P, with a total cost of 26
-28. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P, with a total cost of 28
-29. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P, with a total cost of 26
-30. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; P, with a total cost of 27
-The least cost path from node A to node P is A -&gt; E -&gt; I -&gt; L -&gt; K -&gt; N -&gt; P, with a total cost of 9.</t>
+1. A - D - H - J - K - O
+   Cost: 3 + 3 + 5 + 2 + 1 = 14
+2. A - D - H - J - N - O
+   Cost: 3 + 3 + 5 + 5 = 16
+3. A - E - F - G - H - J - K - O
+   Cost: 2 + 4 + 5 + 5 + 2 + 1 = 19
+4. A - E - F - G - H - J - N - O
+   Cost: 2 + 4 + 5 + 5 + 5 = 21
+5. A - E - F - G - H - J - K - L - O
+   Cost: 2 + 4 + 5 + 5 + 2 + 4 + 2 = 24
+6. A - E - F - G - H - J - N - P - O
+   Cost: 2 + 4 + 5 + 5 + 5 + 5 = 26
+7. A - E - F - G - H - J - K - O - P
+   Cost: 2 + 4 + 5 + 5 + 2 + 1 + 5 = 24
+8. A - E - F - G - H - J - N - O - P
+   Cost: 2 + 4 + 5 + 5 + 5 + 5 = 26
+The least cost path from node A to node O is A - D - H - J - K - O with a cost of 14.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 32)
-2) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 30)
-3) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; P (cost: 29)
-4) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 29)
-5) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; P (cost: 26)
-6) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; P (cost: 20)
-7) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; P (cost: 17)
-8) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (cost: 16)
-9) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; P (cost: 15)
-10) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; P (cost: 11)
-11) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; P (cost: 4)
-12) A -&gt; B -&gt; C -&gt; D -&gt; P (cost: 3)
-13) A -&gt; B -&gt; C -&gt; P (cost: 8)
-14) A -&gt; B -&gt; P (cost: 5)
-15) A -&gt; P (cost: 0)
-The least cost path from node A to node P is: A -&gt; P (cost: 0)</t>
+1. A - B - C - G - P (Total cost = 5 + 2 + 5 + 0 = 12)
+2. A - B - E - P (Total cost = 5 + 4 + 0 = 9)
+3. A - B - F - P (Total cost = 5 + 4 + 2 + 0 = 11)
+4. A - B - F - G - P (Total cost = 5 + 4 + 2 + 5 + 0 = 16)
+5. A - B - F - G - H - P (Total cost = 5 + 4 + 2 + 5 + 0 + 1 + 0 = 17)
+6. A - B - F - G - H - I - P (Total cost = 5 + 4 + 2 + 5 + 0 + 1 + 0 + 0 = 17)
+The least cost path from node A to node P is A - B - E - P (cost = 9).</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (Total cost = 4 + 5 + 1 + 4 + 1 + 5 + 2 + 2 = 24)
+2. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; O -&gt; P (Total cost = 4 + 5 + 1 + 4 + 1 + 4 + 2 = 21)
+3. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; P (Total cost = 4 + 5 + 1 + 4 + 1 + 4 + 3 = 22)
+4. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; I -&gt; P (Total cost = 4 + 5 + 1 + 4 + 1 + 4 + 3 + 2 = 24)
+The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; O -&gt; P, with a total cost of 21.</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
